--- a/DIY-Oct-12.xlsx
+++ b/DIY-Oct-12.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="MA" sheetId="1" r:id="rId1"/>
+    <sheet name="KPI" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -28,6 +29,42 @@
   </si>
   <si>
     <t>Forecast</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Bias</t>
+  </si>
+  <si>
+    <t>Absolute</t>
+  </si>
+  <si>
+    <t>Scaled</t>
+  </si>
+  <si>
+    <t>|Error|</t>
+  </si>
+  <si>
+    <t>Error %</t>
+  </si>
+  <si>
+    <t>MAPE</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t>Error^2</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Mean</t>
   </si>
 </sst>
 </file>
@@ -145,7 +182,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>MA!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -168,7 +205,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$14</c:f>
+              <c:f>MA!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -216,7 +253,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$14</c:f>
+              <c:f>MA!$B$2:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -265,7 +302,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>MA!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -288,7 +325,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$14</c:f>
+              <c:f>MA!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -336,7 +373,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$14</c:f>
+              <c:f>MA!$C$2:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -377,6 +414,493 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B5C8-4233-B574-8EA861F26C28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1274342848"/>
+        <c:axId val="1269895968"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1274342848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1269895968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1269895968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1274342848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>KPI!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Demand</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>KPI!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>KPI!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>132</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FD42-42C9-95B7-861CAD34DDFF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>KPI!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Forecast</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>KPI!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>KPI!$C$2:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="3">
+                  <c:v>60.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>109.66666666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>129.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>175.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>160</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FD42-42C9-95B7-861CAD34DDFF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -616,7 +1140,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1151,6 +2231,43 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1432,8 +2549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1493,7 +2610,7 @@
         <v>132</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:C13" si="0">AVERAGE(B3:B5)</f>
+        <f t="shared" ref="C6:C12" si="0">AVERAGE(B3:B5)</f>
         <v>85.666666666666671</v>
       </c>
     </row>
@@ -1589,4 +2706,393 @@
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>37</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <f>AVERAGE(D5:D11)</f>
+        <v>-22.952380952380956</v>
+      </c>
+      <c r="K2">
+        <f>J2/AVERAGE(B5:B11)</f>
+        <v>-0.15330788804071249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>60</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3">
+        <f>AVERAGE(F5:F11)</f>
+        <v>0.29310830322099823</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>85</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <f>AVERAGE(E5:E11)</f>
+        <v>42.285714285714285</v>
+      </c>
+      <c r="K4">
+        <f>J4/AVERAGE(B5:B11)</f>
+        <v>0.28244274809160302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>112</v>
+      </c>
+      <c r="C5">
+        <f>AVERAGE(B2:B4)</f>
+        <v>60.666666666666664</v>
+      </c>
+      <c r="D5">
+        <f>C5-B5</f>
+        <v>-51.333333333333336</v>
+      </c>
+      <c r="E5">
+        <f>ABS(D5)</f>
+        <v>51.333333333333336</v>
+      </c>
+      <c r="F5">
+        <f>E5/B5</f>
+        <v>0.45833333333333337</v>
+      </c>
+      <c r="G5">
+        <f>D5^2</f>
+        <v>2635.1111111111113</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5">
+        <f>SQRT(AVERAGE(G5:G11))</f>
+        <v>43.198691926110264</v>
+      </c>
+      <c r="K5">
+        <f>J5/AVERAGE(B5:B11)</f>
+        <v>0.28854088118585097</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>132</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:C12" si="0">AVERAGE(B3:B5)</f>
+        <v>85.666666666666671</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:D11" si="1">C6-B6</f>
+        <v>-46.333333333333329</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E11" si="2">ABS(D6)</f>
+        <v>46.333333333333329</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:F11" si="3">E6/B6</f>
+        <v>0.35101010101010099</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:G11" si="4">D6^2</f>
+        <v>2146.7777777777774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>145</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>109.66666666666667</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>-35.333333333333329</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>35.333333333333329</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>0.2436781609195402</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="4"/>
+        <v>1248.4444444444441</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>179</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>129.66666666666666</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>-49.333333333333343</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>49.333333333333343</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>0.27560521415270023</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="4"/>
+        <v>2433.7777777777787</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>198</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>152</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>-46</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>0.23232323232323232</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>150</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>174</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>0.16</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>576</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>132</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>175.66666666666666</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>43.666666666666657</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>43.666666666666657</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>0.33080808080808072</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>1906.7777777777769</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <f>MEDIAN(B5:B11)</f>
+        <v>145</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:G16" si="5">MEDIAN(C5:C11)</f>
+        <v>129.66666666666666</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="5"/>
+        <v>-46</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="5"/>
+        <v>46</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="5"/>
+        <v>0.27560521415270023</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="5"/>
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <f>AVERAGE(B5:B11)</f>
+        <v>149.71428571428572</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:G17" si="6">AVERAGE(C5:C11)</f>
+        <v>126.76190476190474</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="6"/>
+        <v>-22.952380952380956</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="6"/>
+        <v>42.285714285714285</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="6"/>
+        <v>0.29310830322099823</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="6"/>
+        <v>1866.1269841269841</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/DIY-Oct-12.xlsx
+++ b/DIY-Oct-12.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="MA" sheetId="1" r:id="rId1"/>
-    <sheet name="KPI" sheetId="2" r:id="rId2"/>
+    <sheet name="1.MA" sheetId="1" r:id="rId1"/>
+    <sheet name="2.KPI" sheetId="2" r:id="rId2"/>
+    <sheet name="3.Simple" sheetId="3" r:id="rId3"/>
+    <sheet name="5.Double" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -65,6 +67,18 @@
   </si>
   <si>
     <t>Mean</t>
+  </si>
+  <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>Level (a)</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>Trend (b)</t>
   </si>
 </sst>
 </file>
@@ -182,7 +196,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>MA!$B$1</c:f>
+              <c:f>'1.MA'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -205,7 +219,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>MA!$A$2:$A$14</c:f>
+              <c:f>'1.MA'!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -253,7 +267,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>MA!$B$2:$B$14</c:f>
+              <c:f>'1.MA'!$B$2:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -302,7 +316,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>MA!$C$1</c:f>
+              <c:f>'1.MA'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -325,7 +339,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>MA!$A$2:$A$14</c:f>
+              <c:f>'1.MA'!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -373,7 +387,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>MA!$C$2:$C$14</c:f>
+              <c:f>'1.MA'!$C$2:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -669,7 +683,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>KPI!$B$1</c:f>
+              <c:f>'2.KPI'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -692,7 +706,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>KPI!$A$2:$A$14</c:f>
+              <c:f>'2.KPI'!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -740,7 +754,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>KPI!$B$2:$B$14</c:f>
+              <c:f>'2.KPI'!$B$2:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -789,7 +803,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>KPI!$C$1</c:f>
+              <c:f>'2.KPI'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -812,7 +826,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>KPI!$A$2:$A$14</c:f>
+              <c:f>'2.KPI'!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -860,7 +874,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>KPI!$C$2:$C$14</c:f>
+              <c:f>'2.KPI'!$C$2:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1100,6 +1114,995 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3.Simple'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Demand</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'3.Simple'!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3.Simple'!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>132</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E687-4AD6-86F2-687735D76312}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3.Simple'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Forecast</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'3.Simple'!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3.Simple'!$C$2:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43.870000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.683000000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58.814700000000009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67.433230000000009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>78.589907000000011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90.530916300000015</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96.477824670000018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>96.47</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>96.47</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>96.47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E687-4AD6-86F2-687735D76312}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1131984128"/>
+        <c:axId val="1131987040"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1131984128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1131987040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1131987040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1131984128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5.Double'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Demand</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'5.Double'!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'5.Double'!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>132</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0CBC-4156-924F-D44D6231EFA2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5.Double'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Forecast</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'5.Double'!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'5.Double'!$C$2:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>106.28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>130.16079999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>153.72708799999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>175.88766367999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>199.35667524479999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>222.32451864332802</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>235.30259695627009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>241.05076355966716</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>223.38208296033787</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>198.54498710252798</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0CBC-4156-924F-D44D6231EFA2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1131984128"/>
+        <c:axId val="1131987040"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1131984128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1131987040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1131987040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1131984128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1180,6 +2183,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1697,6 +2780,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2261,6 +4376,78 @@
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>481012</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>176212</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2550,7 +4737,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2702,7 +4889,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C5:C12" formulaRange="1"/>
+    <ignoredError sqref="C6:C12" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2712,8 +4899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3095,4 +5282,471 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="A1:C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>37</v>
+      </c>
+      <c r="C2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>60</v>
+      </c>
+      <c r="C3">
+        <f>$F$1*B2+(1-$F$1)*C2</f>
+        <v>37.000000000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>85</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C14" si="0">$F$1*B3+(1-$F$1)*C3</f>
+        <v>39.300000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>112</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>43.870000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>132</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>50.683000000000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>145</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>58.814700000000009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>179</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>67.433230000000009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>198</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>78.589907000000011</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>150</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>90.530916300000015</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>132</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>96.477824670000018</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>96.47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>96.47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>96.47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>37</v>
+      </c>
+      <c r="D2">
+        <v>37</v>
+      </c>
+      <c r="E2">
+        <f>B3-B2</f>
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>60</v>
+      </c>
+      <c r="C3">
+        <f>D2+E2</f>
+        <v>60</v>
+      </c>
+      <c r="D3">
+        <f>$H$1*B3+(1-$H$1)*(D2+E2)</f>
+        <v>60</v>
+      </c>
+      <c r="E3">
+        <f>$H$2*(D3-D2)+E2*(1-$H$2)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>85</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C14" si="0">D3+E3</f>
+        <v>83</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D14" si="1">$H$1*B4+(1-$H$1)*(D3+E3)</f>
+        <v>83.2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E14" si="2">$H$2*(D4-D3)+E3*(1-$H$2)</f>
+        <v>23.08</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>112</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>106.28</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>106.852</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>23.308799999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>132</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>130.16079999999999</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>130.34472</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>23.382367999999992</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>145</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>153.72708799999998</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>152.85437919999998</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>23.033284479999992</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>179</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>175.88766367999997</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>176.19889731199999</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>23.157777932799995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>198</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>199.35667524479999</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>199.22100772032002</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>23.10351092300801</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>150</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>222.32451864332802</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>215.09206677899522</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>20.210530177274887</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>132</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>235.30259695627009</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>224.97233726064309</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>16.07842629902408</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>241.05076355966716</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>216.94568720370046</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>6.4363957566373955</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>223.38208296033787</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>201.0438746643041</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>-2.4988875617761073</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>198.54498710252798</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>178.6904883922752</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>-10.440687045877224</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/DIY-Oct-12.xlsx
+++ b/DIY-Oct-12.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1.MA" sheetId="1" r:id="rId1"/>
     <sheet name="2.KPI" sheetId="2" r:id="rId2"/>
     <sheet name="3.Simple" sheetId="3" r:id="rId3"/>
     <sheet name="5.Double" sheetId="4" r:id="rId4"/>
+    <sheet name="6.Parameter Optimization" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -80,12 +81,26 @@
   <si>
     <t>Trend (b)</t>
   </si>
+  <si>
+    <t>Error²</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,7 +109,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -104,6 +119,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -117,14 +138,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -155,7 +183,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -560,7 +587,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -642,7 +668,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1047,7 +1072,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1129,7 +1153,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1543,7 +1566,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5342,7 +5364,7 @@
         <v>85</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C14" si="0">$F$1*B3+(1-$F$1)*C3</f>
+        <f t="shared" ref="C4:C11" si="0">$F$1*B3+(1-$F$1)*C3</f>
         <v>39.300000000000004</v>
       </c>
     </row>
@@ -5464,8 +5486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="A1:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5749,4 +5771,322 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="F12:G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>37</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3">
+        <f>B2</f>
+        <v>37</v>
+      </c>
+      <c r="E2" s="3">
+        <f>B3-B2</f>
+        <v>23</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>60</v>
+      </c>
+      <c r="C3" s="3">
+        <f>D2+E2</f>
+        <v>60</v>
+      </c>
+      <c r="D3" s="3">
+        <v>60</v>
+      </c>
+      <c r="E3" s="3">
+        <v>23</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>85</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" ref="C4:C11" si="0">D3+E3</f>
+        <v>83</v>
+      </c>
+      <c r="D4" s="3">
+        <v>85</v>
+      </c>
+      <c r="E4" s="3">
+        <v>24</v>
+      </c>
+      <c r="F4">
+        <f>ABS(C4-B4)</f>
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <f>F4^2</f>
+        <v>4</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>112</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="D5" s="3">
+        <v>112</v>
+      </c>
+      <c r="E5" s="3">
+        <v>26</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F12" si="1">ABS(C5-B5)</f>
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G12" si="2">F5^2</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>132</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="D6" s="3">
+        <v>132</v>
+      </c>
+      <c r="E6" s="3">
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>145</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>154</v>
+      </c>
+      <c r="D7" s="3">
+        <v>145</v>
+      </c>
+      <c r="E7" s="3">
+        <v>17</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>179</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>162</v>
+      </c>
+      <c r="D8" s="3">
+        <v>179</v>
+      </c>
+      <c r="E8" s="3">
+        <v>27</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>198</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>206</v>
+      </c>
+      <c r="D9" s="3">
+        <v>198</v>
+      </c>
+      <c r="E9" s="3">
+        <v>22</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>150</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="D10" s="3">
+        <v>150</v>
+      </c>
+      <c r="E10" s="3">
+        <v>18</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>132</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="D11" s="3">
+        <v>132</v>
+      </c>
+      <c r="E11" s="3">
+        <v>18</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3">
+        <f>C11+$E$11</f>
+        <v>186</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>186</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>34596</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>